--- a/biology/Botanique/Acanthoderini/Acanthoderini.xlsx
+++ b/biology/Botanique/Acanthoderini/Acanthoderini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acanthoderini sont une tribu d'insectes coléoptères de la famille des Cerambycidae, sous-famille des Lamiinae.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette tribu a été décrite par l'entomologiste français James Thomson en 1860[1].
-Synonymie
-Dryoctenitae (Thomson, 1860)
-Oreoderitae (Thomson, 1864)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu a été décrite par l'entomologiste français James Thomson en 1860.
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dryoctenitae (Thomson, 1860)
+Oreoderitae (Thomson, 1864)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acanthoderini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthoderini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des genres
-Selon BioLib                    (21 août 2016)[2] :
+Selon BioLib                    (21 août 2016) :
 Acakyra Martins &amp; Galileo, 1996
 Acanthoderes Audinet-Serville, 1835
 Aegomorphus Haldeman, 1847 - syn. Acanthoderes
@@ -615,37 +666,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Acanthoderini</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acanthoderini</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Acanthoderini sont des longicornes ailés, caractérisés  par les ongles divariqués, les tibias intermédiaires avec un sillon et le scape sans carène (cicatrice)[3]. Le scape court et noueux permet de distinguer cette tribu de celle des Acanthocinini.La coloration est généralement mimétique avec les écorces.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -667,12 +687,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Acanthoderini sont des longicornes ailés, caractérisés  par les ongles divariqués, les tibias intermédiaires avec un sillon et le scape sans carène (cicatrice). Le scape court et noueux permet de distinguer cette tribu de celle des Acanthocinini.La coloration est généralement mimétique avec les écorces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acanthoderini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthoderini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Acanthoderini  forment une tribu qui comprend 61 genres et plus de 450 espèces répandues dans le monde entier, surtout dans les régions tropicales de l'Amérique du Sud[4]. Un seul genre est répandu en Europe[5],[6] et deux dans les Antilles françaises[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Acanthoderini  forment une tribu qui comprend 61 genres et plus de 450 espèces répandues dans le monde entier, surtout dans les régions tropicales de l'Amérique du Sud. Un seul genre est répandu en Europe, et deux dans les Antilles françaises.
 </t>
         </is>
       </c>
